--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\trabajofinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECD81BB-FC21-47D0-A2ED-6BEA8ED746D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF3A96-FAFC-45C8-A269-F1CC874C3A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A809BDFC-8BFD-4939-9C53-B01CCE825D1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="inventario trujillo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,7 +385,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
